--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09B0DE6-B6A3-472D-A496-5F8DA983B4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25F1AD1-7C8C-4B80-B696-D76832505801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1401" yWindow="1401" windowWidth="18851" windowHeight="9766" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
   </si>
   <si>
     <t>Na2SO4 + Na3PO4 + NaNO3 + MgSO4 + MgCl2 + K(CH3COOH) 
-  + KH2PO4 + CaCl2 + ZnSO4 + Zn(CH3COOH) + MnSO4 + FeSO4 &lt;= 90</t>
+  + KH2PO4 + CaCl2 + ZnSO4 + Zn(CH3COOH) + MnSO4 + FeSO4 &lt;= 89.8</t>
   </si>
 </sst>
 </file>
@@ -943,7 +943,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
